--- a/Admin/report_February.xlsx
+++ b/Admin/report_February.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Province/Area</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>ERIG</t>
+  </si>
+  <si>
+    <t>Bayanan Annex</t>
+  </si>
+  <si>
+    <t>Bayanan Main</t>
   </si>
 </sst>
 </file>
@@ -405,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +470,112 @@
       </c>
       <c r="Q1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Admin/report_February.xlsx
+++ b/Admin/report_February.xlsx
@@ -68,10 +68,10 @@
     <t>ERIG</t>
   </si>
   <si>
+    <t>Bagong Silang</t>
+  </si>
+  <si>
     <t>Bayanan Annex</t>
-  </si>
-  <si>
-    <t>Bayanan Main</t>
   </si>
 </sst>
 </file>
@@ -483,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -507,10 +507,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>

--- a/Admin/report_February.xlsx
+++ b/Admin/report_February.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Province/Area</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>ERIG</t>
-  </si>
-  <si>
-    <t>Bagong Silang</t>
-  </si>
-  <si>
-    <t>Bayanan Annex</t>
   </si>
 </sst>
 </file>
@@ -411,7 +405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,112 +464,6 @@
       </c>
       <c r="Q1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
